--- a/funds/stocks/伊利股份&财务报表同型分析.xlsx
+++ b/funds/stocks/伊利股份&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495"/>
+    <workbookView windowWidth="20603" windowHeight="8495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -644,13 +644,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
@@ -720,16 +720,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,31 +786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,37 +799,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,17 +818,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,10 +856,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -902,43 +902,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,91 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +950,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,13 +1028,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,6 +1059,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,6 +1148,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1165,39 +1213,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,26 +1239,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1253,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,137 +1265,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,9 +1566,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1894,8 +1891,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -2287,19 +2284,19 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>19.61</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="57">
         <v>19.09</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="57">
         <v>17.65</v>
       </c>
       <c r="H15" s="23"/>
@@ -2320,7 +2317,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="57"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2348,7 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="57"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
@@ -2382,7 +2379,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="57"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
@@ -2413,7 +2410,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="57"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="22" t="s">
         <v>34</v>
       </c>
@@ -2443,7 +2440,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="57"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="22" t="s">
         <v>37</v>
       </c>
@@ -2471,7 +2468,7 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="57"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
@@ -2499,7 +2496,7 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="57"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
@@ -2527,7 +2524,7 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="57"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
@@ -2555,7 +2552,7 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="57"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="22" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2580,7 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="57"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="24" t="s">
         <v>47</v>
       </c>
@@ -2617,7 +2614,7 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="57"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="24" t="s">
         <v>48</v>
       </c>
@@ -2651,7 +2648,7 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="57"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2682,7 @@
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="57"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2716,7 @@
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="57"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="24" t="s">
         <v>54</v>
       </c>
@@ -2753,7 +2750,7 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="57"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
@@ -2787,7 +2784,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="57"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
         <v>58</v>
       </c>
@@ -2805,7 +2802,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="57"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
@@ -2823,7 +2820,7 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="57"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="24" t="s">
         <v>60</v>
       </c>
@@ -2859,8 +2856,8 @@
   <sheetPr/>
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3542,8 +3539,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -4043,7 +4040,7 @@
         <v>127</v>
       </c>
       <c r="I20" s="45">
-        <v>9.88</v>
+        <v>60.83</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -4205,7 +4202,7 @@
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>66.6988988219478</v>
+        <v>10.8332257169299</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -4274,7 +4271,7 @@
       </c>
       <c r="J31" s="13">
         <f>I31/I20</f>
-        <v>234.103770242915</v>
+        <v>38.0231012658228</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -4288,7 +4285,7 @@
       </c>
       <c r="J32" s="13">
         <f>I32/I20</f>
-        <v>163.872639170041</v>
+        <v>26.6161708860759</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -4302,7 +4299,7 @@
       </c>
       <c r="J33" s="13">
         <f>I33/I20</f>
-        <v>468.20754048583</v>
+        <v>76.0462025316456</v>
       </c>
     </row>
   </sheetData>
@@ -4325,8 +4322,8 @@
   <sheetPr/>
   <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
